--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A16FF-7BEA-453F-B5B8-244C45BB4EA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F42F0A-AED7-476D-B2BD-71D68E7D414A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>Commercial</t>
   </si>
@@ -98,9 +98,6 @@
     </r>
   </si>
   <si>
-    <t>Minimum Debt repayment p.a</t>
-  </si>
-  <si>
     <t>Minimum DSCR</t>
   </si>
   <si>
@@ -186,6 +183,72 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Bhadla-1</t>
+  </si>
+  <si>
+    <t>AC Capacity</t>
+  </si>
+  <si>
+    <t>DC Capacity</t>
+  </si>
+  <si>
+    <t>MWdc</t>
+  </si>
+  <si>
+    <t>T/L length</t>
+  </si>
+  <si>
+    <t>PV Degradation</t>
+  </si>
+  <si>
+    <t>Capex phasing</t>
+  </si>
+  <si>
+    <t>Land Capex</t>
+  </si>
+  <si>
+    <t>PV module Capex</t>
+  </si>
+  <si>
+    <t>BoS Capex</t>
+  </si>
+  <si>
+    <t>Currency Exposure</t>
+  </si>
+  <si>
+    <t>Hedging rate</t>
+  </si>
+  <si>
+    <t>Ckm</t>
+  </si>
+  <si>
+    <t>Rs.L/MWdc</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WTG Capex</t>
+  </si>
+  <si>
+    <t>Rs.L/MW</t>
+  </si>
+  <si>
+    <t>Runija</t>
+  </si>
+  <si>
+    <t>Minimum Debt repayment</t>
+  </si>
+  <si>
+    <t>select</t>
   </si>
 </sst>
 </file>
@@ -525,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,16 +603,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -696,10 +759,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="4">
         <v>1.25</v>
@@ -713,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -730,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -747,10 +810,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -775,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -792,13 +858,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5">
         <v>0.05</v>
@@ -809,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -826,10 +892,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -843,10 +909,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -860,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -877,10 +943,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -894,14 +960,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
         <v>31</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +977,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -926,10 +994,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -943,10 +1011,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -960,13 +1028,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E26" s="4">
         <v>45</v>
@@ -977,19 +1045,355 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E27" s="4">
         <v>30</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F42F0A-AED7-476D-B2BD-71D68E7D414A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3100AF-40D7-475C-9194-D379FD94214D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>Commercial</t>
   </si>
@@ -249,6 +249,45 @@
   </si>
   <si>
     <t>select</t>
+  </si>
+  <si>
+    <t>Offtake</t>
+  </si>
+  <si>
+    <t>Offtake Name</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Offtake Capacity</t>
+  </si>
+  <si>
+    <t>Contraints</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Min Compliance</t>
+  </si>
+  <si>
+    <t>Monthly RTC</t>
+  </si>
+  <si>
+    <t>Timeperiod</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Peak hours</t>
+  </si>
+  <si>
+    <t>Rs.L/MW/YR</t>
+  </si>
+  <si>
+    <t>%p.a</t>
   </si>
 </sst>
 </file>
@@ -588,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1431,204 @@
         <v>0.04</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
